--- a/data/pca/factorExposure/factorExposure_2016-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01144427014889029</v>
+        <v>0.01543144278863154</v>
       </c>
       <c r="C2">
-        <v>-0.05783046408498226</v>
+        <v>-0.04022766174373387</v>
       </c>
       <c r="D2">
-        <v>0.04032259846233715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07388871173351504</v>
+      </c>
+      <c r="E2">
+        <v>-0.1112383083699533</v>
+      </c>
+      <c r="F2">
+        <v>-0.06578841625285051</v>
+      </c>
+      <c r="G2">
+        <v>0.03081519213704103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04177425604926815</v>
+        <v>0.02578503724671671</v>
       </c>
       <c r="C3">
-        <v>-0.1270947854719595</v>
+        <v>-0.06958835755257059</v>
       </c>
       <c r="D3">
-        <v>0.07716202311267682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07878400596296513</v>
+      </c>
+      <c r="E3">
+        <v>-0.07812715528989903</v>
+      </c>
+      <c r="F3">
+        <v>0.04649233405626872</v>
+      </c>
+      <c r="G3">
+        <v>0.006318881740299619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06389201974432109</v>
+        <v>0.06252809010123531</v>
       </c>
       <c r="C4">
-        <v>-0.06658945066663381</v>
+        <v>-0.06525575845598969</v>
       </c>
       <c r="D4">
-        <v>0.03410315542284477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07014873165926733</v>
+      </c>
+      <c r="E4">
+        <v>-0.1069012485750058</v>
+      </c>
+      <c r="F4">
+        <v>-0.009311385402071246</v>
+      </c>
+      <c r="G4">
+        <v>0.06598241617548171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04204128925600628</v>
+        <v>0.03888864195866577</v>
       </c>
       <c r="C6">
-        <v>-0.0360713714981102</v>
+        <v>-0.02714985060177082</v>
       </c>
       <c r="D6">
-        <v>0.03313125390272208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07334048793575533</v>
+      </c>
+      <c r="E6">
+        <v>-0.0938322404462561</v>
+      </c>
+      <c r="F6">
+        <v>-0.005289083047092317</v>
+      </c>
+      <c r="G6">
+        <v>0.05018112625218565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02904783322159439</v>
+        <v>0.02291188089688794</v>
       </c>
       <c r="C7">
-        <v>-0.03868862484936689</v>
+        <v>-0.03578094686716925</v>
       </c>
       <c r="D7">
-        <v>-0.002075760622510075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04976258739305644</v>
+      </c>
+      <c r="E7">
+        <v>-0.07925173771219113</v>
+      </c>
+      <c r="F7">
+        <v>-0.04262014113719033</v>
+      </c>
+      <c r="G7">
+        <v>0.1043468757268412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008860463038375361</v>
+        <v>0.008050925540585974</v>
       </c>
       <c r="C8">
-        <v>-0.041294174859494</v>
+        <v>-0.03525401189801229</v>
       </c>
       <c r="D8">
-        <v>0.02839451479356541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04447428655958392</v>
+      </c>
+      <c r="E8">
+        <v>-0.06268824109249554</v>
+      </c>
+      <c r="F8">
+        <v>-0.005207156443435301</v>
+      </c>
+      <c r="G8">
+        <v>0.03230102204895256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03927608070909204</v>
+        <v>0.04228973813746224</v>
       </c>
       <c r="C9">
-        <v>-0.04611791328092996</v>
+        <v>-0.04993228423256214</v>
       </c>
       <c r="D9">
-        <v>0.01883556260279689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05101366067283958</v>
+      </c>
+      <c r="E9">
+        <v>-0.08237242368289621</v>
+      </c>
+      <c r="F9">
+        <v>-0.03091408113119563</v>
+      </c>
+      <c r="G9">
+        <v>0.07580507351239986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0695974860303616</v>
+        <v>0.09786753457247996</v>
       </c>
       <c r="C10">
-        <v>0.1882829239147163</v>
+        <v>0.201733694145998</v>
       </c>
       <c r="D10">
-        <v>0.002254068656469788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008154706280689596</v>
+      </c>
+      <c r="E10">
+        <v>-0.04160992103952096</v>
+      </c>
+      <c r="F10">
+        <v>-0.009539150697766943</v>
+      </c>
+      <c r="G10">
+        <v>0.03600328351228237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04425527454372349</v>
+        <v>0.03847156871565657</v>
       </c>
       <c r="C11">
-        <v>-0.04983374538077712</v>
+        <v>-0.04688488461122731</v>
       </c>
       <c r="D11">
-        <v>0.01562522835131865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0353713273757764</v>
+      </c>
+      <c r="E11">
+        <v>-0.03496336635049795</v>
+      </c>
+      <c r="F11">
+        <v>-0.02177631151204707</v>
+      </c>
+      <c r="G11">
+        <v>0.07183180951770356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04635116360461269</v>
+        <v>0.04012654966607022</v>
       </c>
       <c r="C12">
-        <v>-0.04533702685833962</v>
+        <v>-0.04532373828691304</v>
       </c>
       <c r="D12">
-        <v>0.001899466646361472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03008505704008151</v>
+      </c>
+      <c r="E12">
+        <v>-0.0452869523371052</v>
+      </c>
+      <c r="F12">
+        <v>-0.02241648195456997</v>
+      </c>
+      <c r="G12">
+        <v>0.06637845780254951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0168440305733804</v>
+        <v>0.01539424594745538</v>
       </c>
       <c r="C13">
-        <v>-0.05320060425867166</v>
+        <v>-0.04224657800365277</v>
       </c>
       <c r="D13">
-        <v>0.009109403106987249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05934941685358516</v>
+      </c>
+      <c r="E13">
+        <v>-0.1162160232692491</v>
+      </c>
+      <c r="F13">
+        <v>-0.03041994751742498</v>
+      </c>
+      <c r="G13">
+        <v>0.0930960935959694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01100571263372054</v>
+        <v>0.007115950730516129</v>
       </c>
       <c r="C14">
-        <v>-0.03421630409985503</v>
+        <v>-0.02974790906869768</v>
       </c>
       <c r="D14">
-        <v>-0.001607473699746296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03363155877468661</v>
+      </c>
+      <c r="E14">
+        <v>-0.07131480410368481</v>
+      </c>
+      <c r="F14">
+        <v>-0.0529073599877528</v>
+      </c>
+      <c r="G14">
+        <v>0.08285645504898977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002438774891772525</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.006630660892713773</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01045469626269767</v>
+      </c>
+      <c r="E15">
+        <v>-0.008477571191536347</v>
+      </c>
+      <c r="F15">
+        <v>-0.005084495611055622</v>
+      </c>
+      <c r="G15">
+        <v>0.007433538151766324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04189830065513263</v>
+        <v>0.03671048099221043</v>
       </c>
       <c r="C16">
-        <v>-0.0468641054951871</v>
+        <v>-0.04391172105088258</v>
       </c>
       <c r="D16">
-        <v>0.00389174481681621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03033531360465512</v>
+      </c>
+      <c r="E16">
+        <v>-0.04949730219465679</v>
+      </c>
+      <c r="F16">
+        <v>-0.03502310922388337</v>
+      </c>
+      <c r="G16">
+        <v>0.06016858969782905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02815100539502614</v>
+        <v>0.01948673643125219</v>
       </c>
       <c r="C19">
-        <v>-0.06276333947074887</v>
+        <v>-0.04564584223159523</v>
       </c>
       <c r="D19">
-        <v>0.08733956723341053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1002686194156157</v>
+      </c>
+      <c r="E19">
+        <v>-0.1164333354587681</v>
+      </c>
+      <c r="F19">
+        <v>-0.03940354344766057</v>
+      </c>
+      <c r="G19">
+        <v>0.02593010555411428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02108131497018476</v>
+        <v>0.01691296895234185</v>
       </c>
       <c r="C20">
-        <v>-0.04809426958596169</v>
+        <v>-0.03948182239791984</v>
       </c>
       <c r="D20">
-        <v>0.01001405801508253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04434589973791726</v>
+      </c>
+      <c r="E20">
+        <v>-0.09011840651847652</v>
+      </c>
+      <c r="F20">
+        <v>-0.03278792642115726</v>
+      </c>
+      <c r="G20">
+        <v>0.06263669224074567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01673932655870947</v>
+        <v>0.01490711815236843</v>
       </c>
       <c r="C21">
-        <v>-0.05475267447461169</v>
+        <v>-0.04388249808446827</v>
       </c>
       <c r="D21">
-        <v>0.03503642953578352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07298713715956695</v>
+      </c>
+      <c r="E21">
+        <v>-0.1349443764128143</v>
+      </c>
+      <c r="F21">
+        <v>-0.06150594651490207</v>
+      </c>
+      <c r="G21">
+        <v>0.09529556359084851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0002559679208296315</v>
+        <v>0.00458718452545579</v>
       </c>
       <c r="C22">
-        <v>-0.01328852839056086</v>
+        <v>-0.03022431897611407</v>
       </c>
       <c r="D22">
-        <v>0.02717171180937399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06268715370969018</v>
+      </c>
+      <c r="E22">
+        <v>-0.06737421065793828</v>
+      </c>
+      <c r="F22">
+        <v>0.03774599574019261</v>
+      </c>
+      <c r="G22">
+        <v>0.0412523235155603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0002499349786593886</v>
+        <v>0.004690119157208076</v>
       </c>
       <c r="C23">
-        <v>-0.01328566165139095</v>
+        <v>-0.03022768156567234</v>
       </c>
       <c r="D23">
-        <v>0.02709725183848053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06190546238786686</v>
+      </c>
+      <c r="E23">
+        <v>-0.06753260167855106</v>
+      </c>
+      <c r="F23">
+        <v>0.03782547833584372</v>
+      </c>
+      <c r="G23">
+        <v>0.04135768499538267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03907035836103076</v>
+        <v>0.03780867040951195</v>
       </c>
       <c r="C24">
-        <v>-0.04791501443434371</v>
+        <v>-0.05207359439577168</v>
       </c>
       <c r="D24">
-        <v>0.009153777592569192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03166397753651028</v>
+      </c>
+      <c r="E24">
+        <v>-0.05346085589111337</v>
+      </c>
+      <c r="F24">
+        <v>-0.03464125334474782</v>
+      </c>
+      <c r="G24">
+        <v>0.07094604896073706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05010815852472875</v>
+        <v>0.04493437785173286</v>
       </c>
       <c r="C25">
-        <v>-0.05716490115448414</v>
+        <v>-0.0547901235678697</v>
       </c>
       <c r="D25">
-        <v>-0.0006420183065155455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02804418579699406</v>
+      </c>
+      <c r="E25">
+        <v>-0.04609995721797811</v>
+      </c>
+      <c r="F25">
+        <v>-0.02337867511877471</v>
+      </c>
+      <c r="G25">
+        <v>0.0813012168475553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01969985862829074</v>
+        <v>0.01797469073471964</v>
       </c>
       <c r="C26">
-        <v>-0.01479029732197862</v>
+        <v>-0.01597831397095764</v>
       </c>
       <c r="D26">
-        <v>0.01091146428398841</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03324617427344449</v>
+      </c>
+      <c r="E26">
+        <v>-0.05907753186973659</v>
+      </c>
+      <c r="F26">
+        <v>-0.03948814366282712</v>
+      </c>
+      <c r="G26">
+        <v>0.05012415057755341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0883224573656009</v>
+        <v>0.135279161254868</v>
       </c>
       <c r="C28">
-        <v>0.2606956769641545</v>
+        <v>0.2620883674914254</v>
       </c>
       <c r="D28">
-        <v>-0.0008412956940551529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02232341098281375</v>
+      </c>
+      <c r="E28">
+        <v>-0.06058312598652742</v>
+      </c>
+      <c r="F28">
+        <v>-0.01289221620208932</v>
+      </c>
+      <c r="G28">
+        <v>0.0522096224707435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009557281476469691</v>
+        <v>0.007699152749536116</v>
       </c>
       <c r="C29">
-        <v>-0.03043471788408534</v>
+        <v>-0.02778298295952761</v>
       </c>
       <c r="D29">
-        <v>-0.008206938880564786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02585423826975475</v>
+      </c>
+      <c r="E29">
+        <v>-0.06921803915086522</v>
+      </c>
+      <c r="F29">
+        <v>-0.0439004608613217</v>
+      </c>
+      <c r="G29">
+        <v>0.08728899232085131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04772371899450965</v>
+        <v>0.04625965899666224</v>
       </c>
       <c r="C30">
-        <v>-0.05134350582104127</v>
+        <v>-0.05703114826366264</v>
       </c>
       <c r="D30">
-        <v>0.08223560582950065</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1139314369251206</v>
+      </c>
+      <c r="E30">
+        <v>-0.09005110358807025</v>
+      </c>
+      <c r="F30">
+        <v>-0.04037793718919669</v>
+      </c>
+      <c r="G30">
+        <v>0.0547990340391895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06415328639902579</v>
+        <v>0.06172494259949861</v>
       </c>
       <c r="C31">
-        <v>-0.04328876536446129</v>
+        <v>-0.0593785548571328</v>
       </c>
       <c r="D31">
-        <v>-0.03898361836964035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007450529229045416</v>
+      </c>
+      <c r="E31">
+        <v>-0.08073715766549373</v>
+      </c>
+      <c r="F31">
+        <v>-0.0001826755844453249</v>
+      </c>
+      <c r="G31">
+        <v>0.06972298606101802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007210000317867588</v>
+        <v>0.01128943022568477</v>
       </c>
       <c r="C32">
-        <v>-0.0385345933533773</v>
+        <v>-0.03443435358427512</v>
       </c>
       <c r="D32">
-        <v>0.0582338981686731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0647434201717835</v>
+      </c>
+      <c r="E32">
+        <v>-0.06362352649633934</v>
+      </c>
+      <c r="F32">
+        <v>-0.04819480792595147</v>
+      </c>
+      <c r="G32">
+        <v>0.06769294326780385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03554491922780485</v>
+        <v>0.02924068629340288</v>
       </c>
       <c r="C33">
-        <v>-0.05843641798512749</v>
+        <v>-0.0519207251124057</v>
       </c>
       <c r="D33">
-        <v>0.04157704352357534</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07932797888611472</v>
+      </c>
+      <c r="E33">
+        <v>-0.0975635552180021</v>
+      </c>
+      <c r="F33">
+        <v>-0.0363787968579091</v>
+      </c>
+      <c r="G33">
+        <v>0.1007970448182085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04477889889564884</v>
+        <v>0.04097588141814208</v>
       </c>
       <c r="C34">
-        <v>-0.06286350190027548</v>
+        <v>-0.06193014662770779</v>
       </c>
       <c r="D34">
-        <v>0.02010996312722199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03865047694589134</v>
+      </c>
+      <c r="E34">
+        <v>-0.03213847809865969</v>
+      </c>
+      <c r="F34">
+        <v>-0.03364385119963668</v>
+      </c>
+      <c r="G34">
+        <v>0.07674046754915621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.522295165433923e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>7.449424608254008e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-6.065114171424122e-05</v>
+      </c>
+      <c r="E35">
+        <v>0.0001142809490460969</v>
+      </c>
+      <c r="F35">
+        <v>-9.169813242427429e-05</v>
+      </c>
+      <c r="G35">
+        <v>-6.920599549403352e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01957816143647409</v>
+        <v>0.01665008095196284</v>
       </c>
       <c r="C36">
-        <v>-0.01547161835999604</v>
+        <v>-0.01279850612858662</v>
       </c>
       <c r="D36">
-        <v>0.002313710788047039</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.032265701063312</v>
+      </c>
+      <c r="E36">
+        <v>-0.06775817956418265</v>
+      </c>
+      <c r="F36">
+        <v>-0.03030980153603088</v>
+      </c>
+      <c r="G36">
+        <v>0.06707325076350652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03055942391839706</v>
+        <v>0.024233202098088</v>
       </c>
       <c r="C38">
-        <v>-0.03173171904487156</v>
+        <v>-0.02423225544836892</v>
       </c>
       <c r="D38">
-        <v>-0.01476354971339341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02564062833165387</v>
+      </c>
+      <c r="E38">
+        <v>-0.06128405881919947</v>
+      </c>
+      <c r="F38">
+        <v>-0.02211145508985376</v>
+      </c>
+      <c r="G38">
+        <v>0.04250537166393768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04973153235763104</v>
+        <v>0.04354169917995636</v>
       </c>
       <c r="C39">
-        <v>-0.05867082452623016</v>
+        <v>-0.06118024603195906</v>
       </c>
       <c r="D39">
-        <v>0.02221931153648744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0589306846084874</v>
+      </c>
+      <c r="E39">
+        <v>-0.06341845076262317</v>
+      </c>
+      <c r="F39">
+        <v>-0.05435107661824067</v>
+      </c>
+      <c r="G39">
+        <v>0.06741279667409121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01299899446235583</v>
+        <v>0.01526798268302561</v>
       </c>
       <c r="C40">
-        <v>-0.05414879418167692</v>
+        <v>-0.03993006777420925</v>
       </c>
       <c r="D40">
-        <v>0.01087590938327203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04029137413877925</v>
+      </c>
+      <c r="E40">
+        <v>-0.1051597096125609</v>
+      </c>
+      <c r="F40">
+        <v>-0.01213832325441738</v>
+      </c>
+      <c r="G40">
+        <v>0.09167452418151763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02521730518411582</v>
+        <v>0.02117727479602501</v>
       </c>
       <c r="C41">
-        <v>-0.01316456791255746</v>
+        <v>-0.009420872473589678</v>
       </c>
       <c r="D41">
-        <v>0.002292986854624157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02212778378094919</v>
+      </c>
+      <c r="E41">
+        <v>-0.06878190743961216</v>
+      </c>
+      <c r="F41">
+        <v>-0.02604359484606392</v>
+      </c>
+      <c r="G41">
+        <v>0.05260851436473777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04742337732151949</v>
+        <v>0.03303597039317632</v>
       </c>
       <c r="C43">
-        <v>-0.03319765424301288</v>
+        <v>-0.02408224452417665</v>
       </c>
       <c r="D43">
-        <v>0.02190638928866005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05181832836335138</v>
+      </c>
+      <c r="E43">
+        <v>-0.08299019881557923</v>
+      </c>
+      <c r="F43">
+        <v>-0.01180426573868617</v>
+      </c>
+      <c r="G43">
+        <v>0.07286621374764068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01987930684362103</v>
+        <v>0.02009091196108058</v>
       </c>
       <c r="C44">
-        <v>-0.06902337178268303</v>
+        <v>-0.04841293349828962</v>
       </c>
       <c r="D44">
-        <v>-0.0005673333721990445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04162276903283789</v>
+      </c>
+      <c r="E44">
+        <v>-0.09977363445971789</v>
+      </c>
+      <c r="F44">
+        <v>-0.041581977118326</v>
+      </c>
+      <c r="G44">
+        <v>0.05241306037204861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01376109906448375</v>
+        <v>0.0129640304358947</v>
       </c>
       <c r="C46">
-        <v>-0.02532356630395997</v>
+        <v>-0.02845185832866462</v>
       </c>
       <c r="D46">
-        <v>-0.01085255850382343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0239683308399784</v>
+      </c>
+      <c r="E46">
+        <v>-0.08122950395329301</v>
+      </c>
+      <c r="F46">
+        <v>-0.05237510559932677</v>
+      </c>
+      <c r="G46">
+        <v>0.08106148125578291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09183976617885932</v>
+        <v>0.09425828936157082</v>
       </c>
       <c r="C47">
-        <v>-0.06486425863254468</v>
+        <v>-0.07760640539754539</v>
       </c>
       <c r="D47">
-        <v>-0.04734526538517375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01784228378309706</v>
+      </c>
+      <c r="E47">
+        <v>-0.07211278224061114</v>
+      </c>
+      <c r="F47">
+        <v>-0.008194109257902451</v>
+      </c>
+      <c r="G47">
+        <v>0.07440571784974018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0211025642632059</v>
+        <v>0.01942101925336921</v>
       </c>
       <c r="C48">
-        <v>-0.01141991943480086</v>
+        <v>-0.01406318304452448</v>
       </c>
       <c r="D48">
-        <v>-0.01297634747959368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0198874006747225</v>
+      </c>
+      <c r="E48">
+        <v>-0.0852185093141099</v>
+      </c>
+      <c r="F48">
+        <v>-0.04016124047373046</v>
+      </c>
+      <c r="G48">
+        <v>0.07147962292101356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08665192901126628</v>
+        <v>0.07399844762054578</v>
       </c>
       <c r="C50">
-        <v>-0.08033693944805737</v>
+        <v>-0.07316656188902827</v>
       </c>
       <c r="D50">
-        <v>-0.04359828817854381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0009761721387194879</v>
+      </c>
+      <c r="E50">
+        <v>-0.08492759808136779</v>
+      </c>
+      <c r="F50">
+        <v>0.02645442862053992</v>
+      </c>
+      <c r="G50">
+        <v>0.07437242644486167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0149146782664181</v>
+        <v>0.01131236079129638</v>
       </c>
       <c r="C51">
-        <v>-0.0493838979378887</v>
+        <v>-0.03130276767609153</v>
       </c>
       <c r="D51">
-        <v>0.04405395310080758</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0647206613153317</v>
+      </c>
+      <c r="E51">
+        <v>-0.0679448485673034</v>
+      </c>
+      <c r="F51">
+        <v>-0.04512328425770352</v>
+      </c>
+      <c r="G51">
+        <v>0.05718352250176825</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08481536434885274</v>
+        <v>0.09932763322027338</v>
       </c>
       <c r="C53">
-        <v>-0.0767023973102049</v>
+        <v>-0.0835928420194552</v>
       </c>
       <c r="D53">
-        <v>-0.06869078094885873</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05801887956687454</v>
+      </c>
+      <c r="E53">
+        <v>-0.08060736293306593</v>
+      </c>
+      <c r="F53">
+        <v>-0.01054754907925248</v>
+      </c>
+      <c r="G53">
+        <v>0.07299337412552566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03854319251251778</v>
+        <v>0.03143218532866184</v>
       </c>
       <c r="C54">
-        <v>-0.03142857266129596</v>
+        <v>-0.03010591447165121</v>
       </c>
       <c r="D54">
-        <v>0.002172562954245857</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03395029131085274</v>
+      </c>
+      <c r="E54">
+        <v>-0.07125458473005319</v>
+      </c>
+      <c r="F54">
+        <v>-0.04665718235214285</v>
+      </c>
+      <c r="G54">
+        <v>0.0881217913943174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08191544123956811</v>
+        <v>0.0918469286873194</v>
       </c>
       <c r="C55">
-        <v>-0.04998600435348623</v>
+        <v>-0.0648377046371743</v>
       </c>
       <c r="D55">
-        <v>-0.07016244501220278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0573078229978567</v>
+      </c>
+      <c r="E55">
+        <v>-0.05392118962242584</v>
+      </c>
+      <c r="F55">
+        <v>0.007946327838257801</v>
+      </c>
+      <c r="G55">
+        <v>0.05100712752422289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1540621376141159</v>
+        <v>0.1567271299776846</v>
       </c>
       <c r="C56">
-        <v>-0.07994384702963789</v>
+        <v>-0.09874620503740461</v>
       </c>
       <c r="D56">
-        <v>-0.06533753439706948</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05221514738413626</v>
+      </c>
+      <c r="E56">
+        <v>-0.04093435372105853</v>
+      </c>
+      <c r="F56">
+        <v>0.01041156992462222</v>
+      </c>
+      <c r="G56">
+        <v>0.01939980589422316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05693201572705791</v>
+        <v>0.03784047959474988</v>
       </c>
       <c r="C58">
-        <v>-0.02598014206387623</v>
+        <v>-0.02649557581960036</v>
       </c>
       <c r="D58">
-        <v>0.4508653392452371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4057679146699647</v>
+      </c>
+      <c r="E58">
+        <v>-0.4606631245317795</v>
+      </c>
+      <c r="F58">
+        <v>0.3662339447569557</v>
+      </c>
+      <c r="G58">
+        <v>-0.599251473074345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1224278843356684</v>
+        <v>0.139278313956244</v>
       </c>
       <c r="C59">
-        <v>0.2081127143163149</v>
+        <v>0.1940676079565029</v>
       </c>
       <c r="D59">
-        <v>0.03110125808067695</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03370627424581517</v>
+      </c>
+      <c r="E59">
+        <v>-0.02862654988375036</v>
+      </c>
+      <c r="F59">
+        <v>-0.02852411322790985</v>
+      </c>
+      <c r="G59">
+        <v>-0.005703145507310592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2933916325793854</v>
+        <v>0.2667133786873262</v>
       </c>
       <c r="C60">
-        <v>-0.1062178618760215</v>
+        <v>-0.09677725241145492</v>
       </c>
       <c r="D60">
-        <v>0.2311305333056242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2302144130207734</v>
+      </c>
+      <c r="E60">
+        <v>0.2547917701946711</v>
+      </c>
+      <c r="F60">
+        <v>0.09409514912783794</v>
+      </c>
+      <c r="G60">
+        <v>0.04182879387660982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04790952788244517</v>
+        <v>0.04491913041508772</v>
       </c>
       <c r="C61">
-        <v>-0.0564620404836832</v>
+        <v>-0.05600940960160766</v>
       </c>
       <c r="D61">
-        <v>0.01872310161520646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04823939100913628</v>
+      </c>
+      <c r="E61">
+        <v>-0.06035792421900337</v>
+      </c>
+      <c r="F61">
+        <v>-0.03463217052027921</v>
+      </c>
+      <c r="G61">
+        <v>0.0796069906785232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01924203213777696</v>
+        <v>0.01877202412292457</v>
       </c>
       <c r="C63">
-        <v>-0.03327310322977853</v>
+        <v>-0.0299740073167268</v>
       </c>
       <c r="D63">
-        <v>-0.01670901600046503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0231649531479433</v>
+      </c>
+      <c r="E63">
+        <v>-0.07725607609214218</v>
+      </c>
+      <c r="F63">
+        <v>-0.01497112146017487</v>
+      </c>
+      <c r="G63">
+        <v>0.07030001316798166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05417738278950311</v>
+        <v>0.05898025997408262</v>
       </c>
       <c r="C64">
-        <v>-0.0482461267076957</v>
+        <v>-0.05821046118981268</v>
       </c>
       <c r="D64">
-        <v>0.007261831933684059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01510757859441989</v>
+      </c>
+      <c r="E64">
+        <v>-0.05002337887540764</v>
+      </c>
+      <c r="F64">
+        <v>-0.04064582083199005</v>
+      </c>
+      <c r="G64">
+        <v>0.06096625259810952</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07919044220287724</v>
+        <v>0.06488404382478881</v>
       </c>
       <c r="C65">
-        <v>-0.02549952416410421</v>
+        <v>-0.02550036966695356</v>
       </c>
       <c r="D65">
-        <v>0.06039782779416183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09269786891627102</v>
+      </c>
+      <c r="E65">
+        <v>-0.05276465998423976</v>
+      </c>
+      <c r="F65">
+        <v>0.01466949911771892</v>
+      </c>
+      <c r="G65">
+        <v>0.004528523258269206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06344491150892256</v>
+        <v>0.05538665326485868</v>
       </c>
       <c r="C66">
-        <v>-0.07835608442451959</v>
+        <v>-0.07678083920723704</v>
       </c>
       <c r="D66">
-        <v>0.04238289679328067</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08279759433595421</v>
+      </c>
+      <c r="E66">
+        <v>-0.07438586255260669</v>
+      </c>
+      <c r="F66">
+        <v>-0.04065974557881721</v>
+      </c>
+      <c r="G66">
+        <v>0.07830815685275581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05025348221193011</v>
+        <v>0.04365523575626969</v>
       </c>
       <c r="C67">
-        <v>-0.03197853033386193</v>
+        <v>-0.02851144822707304</v>
       </c>
       <c r="D67">
-        <v>-0.02407445243397859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005853800647343193</v>
+      </c>
+      <c r="E67">
+        <v>-0.03859622092736283</v>
+      </c>
+      <c r="F67">
+        <v>-0.013356695280258</v>
+      </c>
+      <c r="G67">
+        <v>0.03390882005146002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1224249489359997</v>
+        <v>0.1456539851455173</v>
       </c>
       <c r="C68">
-        <v>0.2830427682289949</v>
+        <v>0.2447441236666413</v>
       </c>
       <c r="D68">
-        <v>-0.003243579632386692</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009019096593703249</v>
+      </c>
+      <c r="E68">
+        <v>-0.04783656986013563</v>
+      </c>
+      <c r="F68">
+        <v>0.0007917868923340524</v>
+      </c>
+      <c r="G68">
+        <v>0.02165313052623443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0939227301185544</v>
+        <v>0.09042899898273478</v>
       </c>
       <c r="C69">
-        <v>-0.07077453458300914</v>
+        <v>-0.08853655263762633</v>
       </c>
       <c r="D69">
-        <v>-0.04685161042930591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00668405622206614</v>
+      </c>
+      <c r="E69">
+        <v>-0.0659533765322852</v>
+      </c>
+      <c r="F69">
+        <v>-0.03968816516899625</v>
+      </c>
+      <c r="G69">
+        <v>0.07788275309307731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1130847586504789</v>
+        <v>0.140943646038297</v>
       </c>
       <c r="C71">
-        <v>0.2606810058109492</v>
+        <v>0.2458015319135033</v>
       </c>
       <c r="D71">
-        <v>0.01931228658285286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01245748250375131</v>
+      </c>
+      <c r="E71">
+        <v>-0.06879577310867117</v>
+      </c>
+      <c r="F71">
+        <v>0.01174088936853346</v>
+      </c>
+      <c r="G71">
+        <v>0.04807087005260242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1006135741995918</v>
+        <v>0.1061502666825552</v>
       </c>
       <c r="C72">
-        <v>-0.04198664105554768</v>
+        <v>-0.04751430415627837</v>
       </c>
       <c r="D72">
-        <v>0.0009130163229496242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03954346287775563</v>
+      </c>
+      <c r="E72">
+        <v>-0.02927449614402782</v>
+      </c>
+      <c r="F72">
+        <v>-0.01119296296823699</v>
+      </c>
+      <c r="G72">
+        <v>0.1002800133573173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3776271597967141</v>
+        <v>0.3222781779210444</v>
       </c>
       <c r="C73">
-        <v>-0.05967123733636212</v>
+        <v>-0.07031108509219121</v>
       </c>
       <c r="D73">
-        <v>0.5060805991740749</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4691629975912703</v>
+      </c>
+      <c r="E73">
+        <v>0.530756114760313</v>
+      </c>
+      <c r="F73">
+        <v>0.1895038725148586</v>
+      </c>
+      <c r="G73">
+        <v>0.03957276624534769</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1073513586260938</v>
+        <v>0.1116904187086496</v>
       </c>
       <c r="C74">
-        <v>-0.09172197073665922</v>
+        <v>-0.09082869715288287</v>
       </c>
       <c r="D74">
-        <v>-0.04830659959584532</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0437885589180473</v>
+      </c>
+      <c r="E74">
+        <v>-0.06653801449776957</v>
+      </c>
+      <c r="F74">
+        <v>0.02339503009868987</v>
+      </c>
+      <c r="G74">
+        <v>0.0392593181266677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2574695836485824</v>
+        <v>0.2601582451180839</v>
       </c>
       <c r="C75">
-        <v>-0.08378194642405574</v>
+        <v>-0.1186389001403298</v>
       </c>
       <c r="D75">
-        <v>-0.1536364473347277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1524685252430288</v>
+      </c>
+      <c r="E75">
+        <v>-0.02265930978408229</v>
+      </c>
+      <c r="F75">
+        <v>0.03846482893591278</v>
+      </c>
+      <c r="G75">
+        <v>-0.0597274328975012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1182321087930576</v>
+        <v>0.1309025076601641</v>
       </c>
       <c r="C76">
-        <v>-0.07792630515482249</v>
+        <v>-0.08881324003783743</v>
       </c>
       <c r="D76">
-        <v>-0.07784791209009236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07357631509972525</v>
+      </c>
+      <c r="E76">
+        <v>-0.08978268922196632</v>
+      </c>
+      <c r="F76">
+        <v>-0.003010415734618132</v>
+      </c>
+      <c r="G76">
+        <v>0.02469292407597494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08543983036377893</v>
+        <v>0.0694930376612445</v>
       </c>
       <c r="C77">
-        <v>-0.03708058886854904</v>
+        <v>-0.05606950864438708</v>
       </c>
       <c r="D77">
-        <v>0.05653256618755406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0748035897590775</v>
+      </c>
+      <c r="E77">
+        <v>-0.1057236182818291</v>
+      </c>
+      <c r="F77">
+        <v>-0.1890215138288089</v>
+      </c>
+      <c r="G77">
+        <v>-0.1264439293384915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05012169608896805</v>
+        <v>0.04939698878939715</v>
       </c>
       <c r="C78">
-        <v>-0.03951207335165093</v>
+        <v>-0.05087813328869138</v>
       </c>
       <c r="D78">
-        <v>0.04051994436849198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07339317576757175</v>
+      </c>
+      <c r="E78">
+        <v>-0.06957235648959663</v>
+      </c>
+      <c r="F78">
+        <v>-0.03959400292239401</v>
+      </c>
+      <c r="G78">
+        <v>0.06598659148217045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.00044826285420834</v>
+        <v>0.03560514014091282</v>
       </c>
       <c r="C79">
-        <v>-0.001252637764342053</v>
+        <v>-0.04942134569979265</v>
       </c>
       <c r="D79">
-        <v>0.005176772033609156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0819595145418774</v>
+      </c>
+      <c r="E79">
+        <v>-0.07917860212763862</v>
+      </c>
+      <c r="F79">
+        <v>0.03457394125895344</v>
+      </c>
+      <c r="G79">
+        <v>0.02303622300938714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04029240137898363</v>
+        <v>0.0308573383038719</v>
       </c>
       <c r="C80">
-        <v>-0.05014748309522461</v>
+        <v>-0.05030594733583786</v>
       </c>
       <c r="D80">
-        <v>0.03532082250080301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04594136375282807</v>
+      </c>
+      <c r="E80">
+        <v>-0.0172483135663525</v>
+      </c>
+      <c r="F80">
+        <v>-0.04806213019442365</v>
+      </c>
+      <c r="G80">
+        <v>0.001874665390912536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1464778429350513</v>
+        <v>0.1438858660316417</v>
       </c>
       <c r="C81">
-        <v>-0.06622619589297234</v>
+        <v>-0.08762541005403685</v>
       </c>
       <c r="D81">
-        <v>-0.1179126023899822</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1176625303162926</v>
+      </c>
+      <c r="E81">
+        <v>-0.06858424169832586</v>
+      </c>
+      <c r="F81">
+        <v>0.023410887209022</v>
+      </c>
+      <c r="G81">
+        <v>-0.02578453290564197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2073527643266195</v>
+        <v>0.2358145475982552</v>
       </c>
       <c r="C82">
-        <v>-0.08692914689324802</v>
+        <v>-0.1532966639196348</v>
       </c>
       <c r="D82">
-        <v>-0.2061043946999063</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2499985721661995</v>
+      </c>
+      <c r="E82">
+        <v>0.03672074255726447</v>
+      </c>
+      <c r="F82">
+        <v>-0.05194917703258736</v>
+      </c>
+      <c r="G82">
+        <v>0.1221098948392217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04436977391210437</v>
+        <v>0.0299537007660145</v>
       </c>
       <c r="C83">
-        <v>-0.03552099045231238</v>
+        <v>-0.04712700255600506</v>
       </c>
       <c r="D83">
-        <v>0.0419228367579886</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03581915627071541</v>
+      </c>
+      <c r="E83">
+        <v>-0.02270844455605099</v>
+      </c>
+      <c r="F83">
+        <v>-0.02967682214174288</v>
+      </c>
+      <c r="G83">
+        <v>-0.002239682773198677</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0005186202823625119</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.001974444599294894</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001311641035924756</v>
+      </c>
+      <c r="E84">
+        <v>-0.006108595802831385</v>
+      </c>
+      <c r="F84">
+        <v>0.002397590602449531</v>
+      </c>
+      <c r="G84">
+        <v>-0.002250391206448406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2184984112910074</v>
+        <v>0.203045913527903</v>
       </c>
       <c r="C85">
-        <v>-0.09688662403182804</v>
+        <v>-0.1115600838996266</v>
       </c>
       <c r="D85">
-        <v>-0.1698264043842196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1346903448900101</v>
+      </c>
+      <c r="E85">
+        <v>0.004464135802563973</v>
+      </c>
+      <c r="F85">
+        <v>0.09419761107368504</v>
+      </c>
+      <c r="G85">
+        <v>-0.01040778506782697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0118244238007055</v>
+        <v>0.01499003962255782</v>
       </c>
       <c r="C86">
-        <v>-0.02970109601932876</v>
+        <v>-0.01720852754682338</v>
       </c>
       <c r="D86">
-        <v>0.04366291534137769</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07201560057210894</v>
+      </c>
+      <c r="E86">
+        <v>-0.08323823826028497</v>
+      </c>
+      <c r="F86">
+        <v>-0.05790372754738735</v>
+      </c>
+      <c r="G86">
+        <v>0.07739509105459447</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0332223287031247</v>
+        <v>0.03237046802281403</v>
       </c>
       <c r="C87">
-        <v>-0.002480963213706547</v>
+        <v>-0.01341642580636076</v>
       </c>
       <c r="D87">
-        <v>0.07811725141770538</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09943035735931018</v>
+      </c>
+      <c r="E87">
+        <v>-0.131428057838121</v>
+      </c>
+      <c r="F87">
+        <v>-0.06600238823415883</v>
+      </c>
+      <c r="G87">
+        <v>-0.008275767553178872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1116478221339775</v>
+        <v>0.09469328951651274</v>
       </c>
       <c r="C88">
-        <v>-0.0836344491065783</v>
+        <v>-0.06782864885333079</v>
       </c>
       <c r="D88">
-        <v>-0.01833116120041894</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01592237023987894</v>
+      </c>
+      <c r="E88">
+        <v>-0.04706535827952647</v>
+      </c>
+      <c r="F88">
+        <v>-0.0369291861294882</v>
+      </c>
+      <c r="G88">
+        <v>0.04567467350631498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1741589100514646</v>
+        <v>0.2109108640374347</v>
       </c>
       <c r="C89">
-        <v>0.3829209059715504</v>
+        <v>0.3854691341895816</v>
       </c>
       <c r="D89">
-        <v>-0.02469782517423899</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.006726364445016443</v>
+      </c>
+      <c r="E89">
+        <v>-0.0794686656479679</v>
+      </c>
+      <c r="F89">
+        <v>-0.08052925641489196</v>
+      </c>
+      <c r="G89">
+        <v>0.004448621603899005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1676438622757999</v>
+        <v>0.1918085929984398</v>
       </c>
       <c r="C90">
-        <v>0.3353174631145023</v>
+        <v>0.3123136029226476</v>
       </c>
       <c r="D90">
-        <v>-0.0291785307621388</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.008786811549662902</v>
+      </c>
+      <c r="E90">
+        <v>-0.06046540998152056</v>
+      </c>
+      <c r="F90">
+        <v>-0.01321023542859075</v>
+      </c>
+      <c r="G90">
+        <v>0.01277306615314512</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1918821455078756</v>
+        <v>0.1886098147107084</v>
       </c>
       <c r="C91">
-        <v>-0.1179062080326923</v>
+        <v>-0.1381673271460882</v>
       </c>
       <c r="D91">
-        <v>-0.1397825290064077</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1259107500289071</v>
+      </c>
+      <c r="E91">
+        <v>-0.06023235235958815</v>
+      </c>
+      <c r="F91">
+        <v>0.01358028723496064</v>
+      </c>
+      <c r="G91">
+        <v>-0.01934053932624311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1606963544276457</v>
+        <v>0.178225078683884</v>
       </c>
       <c r="C92">
-        <v>0.297330241650983</v>
+        <v>0.3001794062745461</v>
       </c>
       <c r="D92">
-        <v>-0.02121580265256985</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00884194812270976</v>
+      </c>
+      <c r="E92">
+        <v>-0.06688135559720988</v>
+      </c>
+      <c r="F92">
+        <v>-0.04907996244526061</v>
+      </c>
+      <c r="G92">
+        <v>0.03010375549543702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.187265330538809</v>
+        <v>0.2108243681409154</v>
       </c>
       <c r="C93">
-        <v>0.3383014703261046</v>
+        <v>0.3220922597773369</v>
       </c>
       <c r="D93">
-        <v>-0.03761330401299184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01490743355913133</v>
+      </c>
+      <c r="E93">
+        <v>-0.04395581342512267</v>
+      </c>
+      <c r="F93">
+        <v>0.01343389708146644</v>
+      </c>
+      <c r="G93">
+        <v>0.03519058389474859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3580031578749602</v>
+        <v>0.3515235613155431</v>
       </c>
       <c r="C94">
-        <v>-0.118555599759919</v>
+        <v>-0.1696027118607982</v>
       </c>
       <c r="D94">
-        <v>-0.422952646427263</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4063459600511865</v>
+      </c>
+      <c r="E94">
+        <v>0.03247313536941732</v>
+      </c>
+      <c r="F94">
+        <v>0.0577937325311909</v>
+      </c>
+      <c r="G94">
+        <v>-0.4316463463263394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1199762290601463</v>
+        <v>0.08881548653127126</v>
       </c>
       <c r="C95">
-        <v>-0.03865229052020161</v>
+        <v>-0.05087463311424207</v>
       </c>
       <c r="D95">
-        <v>0.2063864848580302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1913441053705494</v>
+      </c>
+      <c r="E95">
+        <v>0.1329806364670239</v>
+      </c>
+      <c r="F95">
+        <v>-0.8187879003745012</v>
+      </c>
+      <c r="G95">
+        <v>-0.3834111686654316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1871973053163547</v>
+        <v>0.1847535752103309</v>
       </c>
       <c r="C98">
-        <v>-0.02727306368862609</v>
+        <v>-0.04663329756294995</v>
       </c>
       <c r="D98">
-        <v>0.1966768242284558</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1947402767931322</v>
+      </c>
+      <c r="E98">
+        <v>0.1577383901727231</v>
+      </c>
+      <c r="F98">
+        <v>0.09721923965176821</v>
+      </c>
+      <c r="G98">
+        <v>0.06659888749181421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00933009375726305</v>
+        <v>0.00769928387697943</v>
       </c>
       <c r="C101">
-        <v>-0.03045468540682507</v>
+        <v>-0.02730961354222245</v>
       </c>
       <c r="D101">
-        <v>-0.008024562149639364</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02580546228257353</v>
+      </c>
+      <c r="E101">
+        <v>-0.06999078459210349</v>
+      </c>
+      <c r="F101">
+        <v>-0.04462302931925861</v>
+      </c>
+      <c r="G101">
+        <v>0.08713437591172449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1224559593964073</v>
+        <v>0.1262593858061413</v>
       </c>
       <c r="C102">
-        <v>-0.06120251804387201</v>
+        <v>-0.0961572202881219</v>
       </c>
       <c r="D102">
-        <v>-0.05409083720652694</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06149676989023631</v>
+      </c>
+      <c r="E102">
+        <v>0.005083354011962341</v>
+      </c>
+      <c r="F102">
+        <v>-0.02425036845782183</v>
+      </c>
+      <c r="G102">
+        <v>-0.0009514987109500927</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
